--- a/data/Request_ID.xlsx
+++ b/data/Request_ID.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Zomato_Request_ID</t>
   </si>
@@ -70,6 +70,108 @@
   </si>
   <si>
     <t>50451</t>
+  </si>
+  <si>
+    <t>50452</t>
+  </si>
+  <si>
+    <t>50455</t>
+  </si>
+  <si>
+    <t>50456</t>
+  </si>
+  <si>
+    <t>50458</t>
+  </si>
+  <si>
+    <t>50459</t>
+  </si>
+  <si>
+    <t>50460</t>
+  </si>
+  <si>
+    <t>50462</t>
+  </si>
+  <si>
+    <t>50463</t>
+  </si>
+  <si>
+    <t>50464</t>
+  </si>
+  <si>
+    <t>50465</t>
+  </si>
+  <si>
+    <t>50467</t>
+  </si>
+  <si>
+    <t>50468</t>
+  </si>
+  <si>
+    <t>51467</t>
+  </si>
+  <si>
+    <t>51468</t>
+  </si>
+  <si>
+    <t>51469</t>
+  </si>
+  <si>
+    <t>51470</t>
+  </si>
+  <si>
+    <t>52470</t>
+  </si>
+  <si>
+    <t>52471</t>
+  </si>
+  <si>
+    <t>52472</t>
+  </si>
+  <si>
+    <t>52473</t>
+  </si>
+  <si>
+    <t>52474</t>
+  </si>
+  <si>
+    <t>52475</t>
+  </si>
+  <si>
+    <t>52476</t>
+  </si>
+  <si>
+    <t>52477</t>
+  </si>
+  <si>
+    <t>53475</t>
+  </si>
+  <si>
+    <t>54475</t>
+  </si>
+  <si>
+    <t>54476</t>
+  </si>
+  <si>
+    <t>55475</t>
+  </si>
+  <si>
+    <t>55476</t>
+  </si>
+  <si>
+    <t>55477</t>
+  </si>
+  <si>
+    <t>55478</t>
+  </si>
+  <si>
+    <t>55479</t>
+  </si>
+  <si>
+    <t>55480</t>
+  </si>
+  <si>
+    <t>56481</t>
   </si>
 </sst>
 </file>
@@ -427,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
